--- a/console/Networking/agExcel/detail.xlsx
+++ b/console/Networking/agExcel/detail.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lulu8/Documents/帮助文档/en/console/Networking/agExcel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A80EA86-BA17-0540-930C-9FC0A924CD69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10740"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24080" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <r>
       <rPr>
@@ -392,14 +398,34 @@
   </si>
   <si>
     <t>Mean Value'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aggregation Method of  the monitoring datas of the Instances in the AG.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please remove the VMs from the AG first.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -791,22 +817,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="24.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="55" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="40.1640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -817,7 +844,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="38">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -827,8 +854,11 @@
       <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -839,7 +869,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="19">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,7 +880,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="19">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -861,7 +891,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="19">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -872,7 +902,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="38">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -882,8 +912,11 @@
       <c r="C7" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="19">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -894,7 +927,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="19">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -905,7 +938,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="19">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -916,7 +949,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="19">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -927,7 +960,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="19">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -937,8 +970,11 @@
       <c r="C12" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="19">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -948,8 +984,11 @@
       <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="19">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -958,6 +997,9 @@
       </c>
       <c r="C14" s="2" t="s">
         <v>40</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/console/Networking/agExcel/detail.xlsx
+++ b/console/Networking/agExcel/detail.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lulu8/Documents/帮助文档/en/console/Networking/agExcel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A80EA86-BA17-0540-930C-9FC0A924CD69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24080" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="21840" windowHeight="13080"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <r>
       <rPr>
@@ -361,9 +355,6 @@
     <t>Operations</t>
   </si>
   <si>
-    <t>Please firstly remove Availability Group Private Virtual Machines</t>
-  </si>
-  <si>
     <t>Delete</t>
   </si>
   <si>
@@ -376,9 +367,6 @@
     <t>Monitoring</t>
   </si>
   <si>
-    <t>Aggregation Method of Group Private Instance Monitoring Data</t>
-  </si>
-  <si>
     <t>Instance</t>
   </si>
   <si>
@@ -389,16 +377,6 @@
   </si>
   <si>
     <t>OK</t>
-  </si>
-  <si>
-    <t>'Maximum Value'</t>
-  </si>
-  <si>
-    <t>'Minimum Value'</t>
-  </si>
-  <si>
-    <t>Mean Value'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Aggregation Method of  the monitoring datas of the Instances in the AG.</t>
@@ -424,8 +402,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -468,15 +446,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -817,23 +792,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="55" style="2" customWidth="1"/>
-    <col min="4" max="4" width="40.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -844,7 +819,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="38">
+    <row r="2" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -852,13 +827,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="19">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -866,10 +838,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="19">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -877,10 +849,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -888,10 +860,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="19">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,10 +871,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="38">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -910,13 +882,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="19">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -924,10 +893,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="19">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -935,10 +904,10 @@
         <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="19">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -946,10 +915,10 @@
         <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -957,24 +926,21 @@
         <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="19">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="19">
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -984,11 +950,8 @@
       <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="19">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -997,9 +960,6 @@
       </c>
       <c r="C14" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
